--- a/Lab4/lab4.xlsx
+++ b/Lab4/lab4.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="20620" windowHeight="12020"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>distance(cm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +58,9 @@
     <t>&lt;0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&gt;3.3</t>
+  </si>
 </sst>
 </file>
 
@@ -62,13 +70,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -98,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -113,7 +121,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -155,8 +163,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.38540223097112863"/>
-                  <c:y val="-5.7177384076990377E-2"/>
+                  <c:x val="0.385402230971129"/>
+                  <c:y val="-0.0571773840769904"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -169,46 +177,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.42372881355932207</c:v>
+                  <c:v>0.423728813559322</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60240963855421692</c:v>
+                  <c:v>0.602409638554217</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.78125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95238095238095233</c:v>
+                  <c:v>0.952380952380952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1111111111111112</c:v>
+                  <c:v>1.111111111111111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2820512820512819</c:v>
+                  <c:v>1.282051282051282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4492753623188408</c:v>
+                  <c:v>1.449275362318841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5873015873015872</c:v>
+                  <c:v>1.587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7543859649122808</c:v>
+                  <c:v>1.754385964912281</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8867924528301885</c:v>
+                  <c:v>1.886792452830188</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0408163265306123</c:v>
+                  <c:v>2.040816326530612</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1739130434782608</c:v>
+                  <c:v>2.173913043478261</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.2727272727272729</c:v>
+                  <c:v>2.272727272727272</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.3809523809523809</c:v>
+                  <c:v>2.380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.5</c:v>
@@ -223,49 +231,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -280,11 +288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96975104"/>
-        <c:axId val="96985088"/>
+        <c:axId val="2067182712"/>
+        <c:axId val="2065632696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96975104"/>
+        <c:axId val="2067182712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -294,12 +302,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96985088"/>
+        <c:crossAx val="2065632696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96985088"/>
+        <c:axId val="2065632696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96975104"/>
+        <c:crossAx val="2067182712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -654,20 +662,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -684,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>10</v>
       </c>
@@ -704,7 +712,7 @@
         <v>0.30735877839607512</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>15</v>
       </c>
@@ -724,7 +732,7 @@
         <v>0.1035429798687235</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>20</v>
       </c>
@@ -744,7 +752,7 @@
         <v>2.3464779250895004E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>25</v>
       </c>
@@ -764,7 +772,7 @@
         <v>9.2693297204147623E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>30</v>
       </c>
@@ -784,7 +792,7 @@
         <v>1.6839680370795574E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>35</v>
       </c>
@@ -804,7 +812,7 @@
         <v>3.3147429137024356E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>40</v>
       </c>
@@ -824,7 +832,7 @@
         <v>4.2200995142541955E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>45</v>
       </c>
@@ -844,7 +852,7 @@
         <v>2.920306932534435E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>50</v>
       </c>
@@ -864,7 +872,7 @@
         <v>3.682234204661549E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>55</v>
       </c>
@@ -884,7 +892,7 @@
         <v>2.33650877153199E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>60</v>
       </c>
@@ -904,7 +912,7 @@
         <v>2.3425070968725606E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>65</v>
       </c>
@@ -924,7 +932,7 @@
         <v>1.3155376933111911E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>70</v>
       </c>
@@ -944,7 +952,7 @@
         <v>1.2242069434422674E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>75</v>
       </c>
@@ -964,7 +972,7 @@
         <v>3.0879946832164194E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>80</v>
       </c>
@@ -984,7 +992,7 @@
         <v>4.2843450023571539E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="D17" t="s">
         <v>3</v>
       </c>
@@ -993,7 +1001,7 @@
         <v>33.263634713317657</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="D18" t="s">
         <v>4</v>
       </c>
@@ -1002,7 +1010,7 @@
         <v>-6.4457507533542113</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1014,23 +1022,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="H21">
-        <f>6300/80</f>
-        <v>78.75</v>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1040,10 +1052,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1053,9 +1070,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>